--- a/data/extracted_data/raw/Kim_etal_2018_Fig1.xlsx
+++ b/data/extracted_data/raw/Kim_etal_2018_Fig1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/extracted_data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77F462D0-97B8-3F46-823C-234CDCF63B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4DB3B8E-5ED5-EB46-8FB6-91B66914A6DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7100" yWindow="6200" windowWidth="24840" windowHeight="13440" xr2:uid="{7639CFAA-78E3-0C48-B47D-6AEEBFC02CBF}"/>
   </bookViews>
@@ -25,9 +25,6 @@
     <t>species</t>
   </si>
   <si>
-    <t>phase</t>
-  </si>
-  <si>
     <t>day</t>
   </si>
   <si>
@@ -40,13 +37,16 @@
     <t>Crassostrea gigas</t>
   </si>
   <si>
-    <t>depuration</t>
-  </si>
-  <si>
     <t>Mytilus edulis</t>
   </si>
   <si>
-    <t>exposure</t>
+    <t>figure</t>
+  </si>
+  <si>
+    <t>Figure 1A</t>
+  </si>
+  <si>
+    <t>Figure 1B</t>
   </si>
 </sst>
 </file>
@@ -909,297 +909,306 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F63AAF-AF8B-CE4A-9E5C-2878FA35860E}">
   <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>0.1</v>
       </c>
       <c r="D2">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>3.0000000000000001E-3</v>
+        <v>1.39190362491853E-4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="D3">
-        <v>0.1</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>2E-3</v>
+        <v>8.5467766442366699E-5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>0.1</v>
       </c>
       <c r="D4">
-        <v>0.1</v>
+        <v>5</v>
       </c>
       <c r="E4">
-        <v>1.5E-3</v>
+        <v>5.07922726286087E-4</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>0.1</v>
       </c>
       <c r="D5">
-        <v>0.1</v>
+        <v>7</v>
       </c>
       <c r="E5">
-        <v>1E-3</v>
+        <v>4.55828087692643E-4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>0.1</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E6">
-        <v>0.01</v>
+        <v>8.4653787714342096E-5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E7">
-        <v>6.0000000000000001E-3</v>
+        <v>3.1745170392879997E-5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8">
+        <v>0.1</v>
+      </c>
+      <c r="D8">
         <v>12</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
       <c r="E8">
-        <v>4.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C9">
+        <v>0.1</v>
+      </c>
+      <c r="D9">
         <v>14</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
       <c r="E9">
-        <v>3.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>1.7000000000000001E-2</v>
+        <v>2.9547427827218697E-4</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E11">
-        <v>1.2E-2</v>
+        <v>3.2591708270023798E-3</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E12">
-        <v>8.0000000000000002E-3</v>
+        <v>4.7935207293249302E-3</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E13">
-        <v>6.0000000000000001E-3</v>
+        <v>7.4389515953983002E-3</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C14">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E14">
-        <v>1.7999999999999999E-2</v>
+        <v>1.98936401128716E-3</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E15">
-        <v>1.2E-2</v>
+        <v>3.2559149120897601E-5</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
         <v>12</v>
       </c>
-      <c r="D16">
-        <v>20</v>
-      </c>
       <c r="E16">
-        <v>8.0000000000000002E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
         <v>14</v>
       </c>
-      <c r="D17">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -1207,16 +1216,16 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C18">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D18">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>4.0000000000000001E-3</v>
+        <v>6.1683308009550502E-3</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1224,16 +1233,16 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C19">
         <v>10</v>
       </c>
       <c r="D19">
-        <v>0.1</v>
+        <v>3</v>
       </c>
       <c r="E19">
-        <v>3.0000000000000001E-3</v>
+        <v>1.3259713479487701E-2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -1241,16 +1250,16 @@
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C20">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D20">
-        <v>0.1</v>
+        <v>5</v>
       </c>
       <c r="E20">
-        <v>2E-3</v>
+        <v>1.4634523551117801E-2</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1258,16 +1267,16 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C21">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D21">
-        <v>0.1</v>
+        <v>7</v>
       </c>
       <c r="E21">
-        <v>1.5E-3</v>
+        <v>2.0614011287171601E-2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1275,16 +1284,16 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C22">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E22">
-        <v>0.01</v>
+        <v>1.4688246147167299E-2</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -1292,16 +1301,16 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C23">
         <v>10</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E23">
-        <v>7.0000000000000001E-3</v>
+        <v>7.6522140221402099E-3</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -1309,16 +1318,16 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24">
         <v>12</v>
       </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
       <c r="E24">
-        <v>5.0000000000000001E-3</v>
+        <v>2.3605383112654602E-3</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -1326,16 +1335,16 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="D25">
         <v>14</v>
       </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
       <c r="E25">
-        <v>3.0000000000000001E-3</v>
+        <v>7.1955719557195003E-4</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -1343,16 +1352,16 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C26">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D26">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>1.2E-2</v>
+        <v>5.0588777946602896E-3</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1360,16 +1369,16 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C27">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D27">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E27">
-        <v>8.0000000000000002E-3</v>
+        <v>2.19896353375298E-2</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -1377,16 +1386,16 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C28">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D28">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E28">
-        <v>6.0000000000000001E-3</v>
+        <v>2.46342522248751E-2</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1394,16 +1403,16 @@
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C29">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D29">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E29">
-        <v>4.0000000000000001E-3</v>
+        <v>2.8074126329498499E-2</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1411,16 +1420,16 @@
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C30">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D30">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E30">
-        <v>1.2E-2</v>
+        <v>1.4212882570002101E-2</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1428,16 +1437,16 @@
         <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C31">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D31">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E31">
-        <v>7.0000000000000001E-3</v>
+        <v>8.9212068591274004E-3</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1445,16 +1454,16 @@
         <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C32">
+        <v>20</v>
+      </c>
+      <c r="D32">
         <v>12</v>
       </c>
-      <c r="D32">
-        <v>20</v>
-      </c>
       <c r="E32">
-        <v>4.0000000000000001E-3</v>
+        <v>4.9001519426958903E-3</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1462,560 +1471,560 @@
         <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C33">
+        <v>20</v>
+      </c>
+      <c r="D33">
         <v>14</v>
       </c>
-      <c r="D33">
-        <v>20</v>
-      </c>
       <c r="E33">
-        <v>3.0000000000000001E-3</v>
+        <v>3.10044497503798E-3</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D34">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E34">
-        <v>2E-3</v>
+        <v>1.38457801408864E-4</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C35">
+        <v>0.1</v>
+      </c>
+      <c r="D35">
         <v>3</v>
       </c>
-      <c r="D35">
-        <v>0.1</v>
-      </c>
       <c r="E35">
-        <v>3.0000000000000001E-3</v>
+        <v>3.084936978759E-3</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C36">
-        <v>5</v>
+        <v>0.1</v>
       </c>
       <c r="D36">
-        <v>0.1</v>
+        <v>5</v>
       </c>
       <c r="E36">
-        <v>3.0000000000000001E-3</v>
+        <v>1.92707349329303E-3</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C37">
-        <v>7</v>
+        <v>0.1</v>
       </c>
       <c r="D37">
-        <v>0.1</v>
+        <v>7</v>
       </c>
       <c r="E37">
-        <v>4.0000000000000001E-3</v>
+        <v>3.9278292083884296E-3</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E38">
-        <v>4.0000000000000001E-3</v>
+        <v>1.9813230412134698E-3</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E39">
-        <v>8.0000000000000002E-3</v>
+        <v>1.77080240749238E-3</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C40">
-        <v>5</v>
+        <v>0.1</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E40">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C41">
-        <v>7</v>
+        <v>0.1</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E41">
-        <v>1.2E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E42">
-        <v>7.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
         <v>3</v>
       </c>
-      <c r="D43">
-        <v>10</v>
-      </c>
       <c r="E43">
-        <v>1.4999999999999999E-2</v>
+        <v>3.4015276240857099E-3</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C44">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D44">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E44">
-        <v>1.7000000000000001E-2</v>
+        <v>5.8743353755634203E-3</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C45">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D45">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E45">
-        <v>2.1999999999999999E-2</v>
+        <v>7.71639092062292E-3</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
       <c r="D46">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E46">
-        <v>1.2E-2</v>
+        <v>4.0079889881514097E-4</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D47">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E47">
-        <v>2.1999999999999999E-2</v>
+        <v>3.2387789803245401E-5</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C48">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D48">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E48">
-        <v>2.5999999999999999E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C49">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D49">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E49">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D50">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E50">
-        <v>2E-3</v>
+        <v>4.2436101589700603E-3</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C51">
+        <v>10</v>
+      </c>
+      <c r="D51">
         <v>3</v>
       </c>
-      <c r="D51">
-        <v>0.1</v>
-      </c>
       <c r="E51">
-        <v>4.0000000000000001E-3</v>
+        <v>1.0347898842136501E-2</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C52">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D52">
-        <v>0.1</v>
+        <v>5</v>
       </c>
       <c r="E52">
-        <v>5.0000000000000001E-3</v>
+        <v>1.0295268683706201E-2</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C53">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D53">
-        <v>0.1</v>
+        <v>7</v>
       </c>
       <c r="E53">
-        <v>6.0000000000000001E-3</v>
+        <v>1.3874119456964699E-2</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E54">
-        <v>5.0000000000000001E-3</v>
+        <v>1.4926722625570101E-2</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C55">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E55">
-        <v>8.9999999999999993E-3</v>
+        <v>3.8225688915278998E-3</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C56">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E56">
-        <v>1.2E-2</v>
+        <v>1.71655285957195E-3</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C57">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E57">
-        <v>1.4999999999999999E-2</v>
+        <v>1.5068419205959401E-3</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D58">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E58">
-        <v>0.01</v>
+        <v>5.6638147418423398E-3</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C59">
+        <v>20</v>
+      </c>
+      <c r="D59">
         <v>3</v>
       </c>
-      <c r="D59">
-        <v>10</v>
-      </c>
       <c r="E59">
-        <v>1.7999999999999999E-2</v>
+        <v>2.4085179887182499E-2</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C60">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D60">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E60">
-        <v>2.1000000000000001E-2</v>
+        <v>2.2769425926425699E-2</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C61">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D61">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E61">
-        <v>2.5000000000000001E-2</v>
+        <v>2.88745243043372E-2</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D62">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E62">
-        <v>1.4999999999999999E-2</v>
+        <v>2.5664084640090599E-2</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C63">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D63">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E63">
-        <v>2.8000000000000001E-2</v>
+        <v>8.7163639307980892E-3</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C64">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D64">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E64">
-        <v>0.03</v>
+        <v>2.9804863566435498E-3</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C65">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D65">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E65">
-        <v>3.1E-2</v>
+        <v>7.1657984939678399E-4</v>
       </c>
     </row>
   </sheetData>
